--- a/Afprøvninger/Excel/ReferenceStruktur.xlsx
+++ b/Afprøvninger/Excel/ReferenceStruktur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Tabel</t>
   </si>
@@ -53,9 +53,6 @@
     <t>ABC_G_EA_Activities</t>
   </si>
   <si>
-    <t>A1 &gt; A4</t>
-  </si>
-  <si>
     <t>A1, A4 &gt; DriverName</t>
   </si>
   <si>
@@ -123,6 +120,18 @@
   </si>
   <si>
     <t>Regler?</t>
+  </si>
+  <si>
+    <t>A1 &gt; A4,  A4 &gt; C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1&gt;A1,A4,R2 R2&gt;A1,A4 </t>
+  </si>
+  <si>
+    <t>EventlyAssigned</t>
+  </si>
+  <si>
+    <t>?DriverList</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,18 +478,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -489,13 +501,16 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -503,13 +518,16 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -517,12 +535,15 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -531,12 +552,12 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -545,84 +566,84 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Afprøvninger/Excel/ReferenceStruktur.xlsx
+++ b/Afprøvninger/Excel/ReferenceStruktur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Tabel</t>
   </si>
@@ -56,9 +56,6 @@
     <t>A1, A4 &gt; DriverName</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>ABC_G_EA_Ressourcer</t>
   </si>
   <si>
@@ -132,6 +129,21 @@
   </si>
   <si>
     <t>?DriverList</t>
+  </si>
+  <si>
+    <t>Cost*DriverQuantityFixed/SumDriverQuantityFixed</t>
+  </si>
+  <si>
+    <t>ABC_R_CE_xxxx &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 </t>
+  </si>
+  <si>
+    <t>Costobject ?</t>
+  </si>
+  <si>
+    <t>ABC_G_EA_xxxx &gt;</t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,21 +490,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -501,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -509,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -518,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -540,10 +552,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -552,12 +564,12 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -566,95 +578,111 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
-        <v>10</v>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
